--- a/小米深色配置.xlsx
+++ b/小米深色配置.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\DarkP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83BD7CEE-C69B-4871-B44C-C42996314480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4168F4C4-A009-4F4D-8FD3-7A8AC2B6450F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="166">
   <si>
     <t>APP名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -593,10 +593,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>京喜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>com.MobileTicket</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -634,6 +630,51 @@
   </si>
   <si>
     <t>抖音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pansong291.xposed.quickenergy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.huawei.works</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.ss.android.ugc.aweme.lite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soul</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酷安@夜夜夜猫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酷安@夜夜夜猫 GitHub@MidNightBlackCat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XQ_Crystal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.kingsoft.moffice_pro_hw</t>
+  </si>
+  <si>
+    <t>com.clover.daysmatter</t>
+  </si>
+  <si>
+    <t>chili.xposed.chimi</t>
+  </si>
+  <si>
+    <t>cn.soulapp.android</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>官方深色</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -641,7 +682,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -665,6 +706,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -683,10 +732,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -694,11 +744,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -974,11 +1037,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J181"/>
+  <dimension ref="A1:J179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B62" sqref="B62"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -986,7 +1049,7 @@
     <col min="1" max="1" width="15.77734375" customWidth="1"/>
     <col min="2" max="2" width="30.77734375" customWidth="1"/>
     <col min="3" max="7" width="15.77734375" customWidth="1"/>
-    <col min="8" max="8" width="10.77734375" customWidth="1"/>
+    <col min="8" max="8" width="30.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1012,7 +1075,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1163,7 +1226,7 @@
         <v>15</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -2017,13 +2080,13 @@
     </row>
     <row r="46" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C46" s="1">
-        <v>129</v>
+        <v>17</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1" t="b">
@@ -2041,23 +2104,21 @@
     </row>
     <row r="47" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C47" s="1">
-        <v>17</v>
+        <v>128</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F47" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="F47" s="1"/>
       <c r="G47" s="1" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
@@ -2065,57 +2126,59 @@
     </row>
     <row r="48" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C48" s="1">
-        <v>128</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1" t="b">
         <v>1</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1" t="s">
-        <v>58</v>
+        <v>145</v>
       </c>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
     </row>
     <row r="49" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>108</v>
-      </c>
+      <c r="A49" s="1"/>
       <c r="B49" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1" t="s">
-        <v>146</v>
+        <v>9</v>
       </c>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
     </row>
     <row r="50" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
+      <c r="A50" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="B50" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C50" s="1"/>
+        <v>61</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0</v>
+      </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F50" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="G50" s="1" t="s">
         <v>9</v>
       </c>
@@ -2125,15 +2188,17 @@
     </row>
     <row r="51" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C51" s="1">
-        <v>0</v>
-      </c>
-      <c r="D51" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="D51" s="1">
+        <v>34</v>
+      </c>
       <c r="E51" s="1" t="b">
         <v>1</v>
       </c>
@@ -2149,25 +2214,19 @@
     </row>
     <row r="52" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>135</v>
+        <v>87</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C52" s="1">
-        <v>16</v>
-      </c>
-      <c r="D52" s="1">
-        <v>34</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
       <c r="E52" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F52" s="1"/>
       <c r="G52" s="1" t="s">
-        <v>9</v>
+        <v>149</v>
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
@@ -2175,10 +2234,10 @@
     </row>
     <row r="53" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -2187,18 +2246,16 @@
       </c>
       <c r="F53" s="1"/>
       <c r="G53" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
     </row>
     <row r="54" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>86</v>
-      </c>
+      <c r="A54" s="1"/>
       <c r="B54" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -2207,7 +2264,7 @@
       </c>
       <c r="F54" s="1"/>
       <c r="G54" s="1" t="s">
-        <v>150</v>
+        <v>9</v>
       </c>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
@@ -2216,7 +2273,7 @@
     <row r="55" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -2232,9 +2289,11 @@
       <c r="J55" s="1"/>
     </row>
     <row r="56" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
+      <c r="A56" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="B56" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -2251,15 +2310,17 @@
     </row>
     <row r="57" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>88</v>
+        <v>136</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C57" s="1"/>
+        <v>68</v>
+      </c>
+      <c r="C57" s="1">
+        <v>17</v>
+      </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57" s="1"/>
       <c r="G57" s="1" t="s">
@@ -2271,67 +2332,61 @@
     </row>
     <row r="58" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>136</v>
+        <v>89</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C58" s="1">
         <v>17</v>
       </c>
-      <c r="D58" s="1"/>
+      <c r="D58" s="1">
+        <v>4</v>
+      </c>
       <c r="E58" s="1" t="b">
         <v>1</v>
       </c>
       <c r="F58" s="1"/>
       <c r="G58" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H58" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
     </row>
     <row r="59" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C59" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D59" s="1">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="E59" s="1" t="b">
         <v>1</v>
       </c>
       <c r="F59" s="1"/>
-      <c r="G59" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>148</v>
-      </c>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
     </row>
     <row r="60" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>91</v>
-      </c>
+      <c r="A60" s="1"/>
       <c r="B60" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C60" s="1">
-        <v>16</v>
-      </c>
-      <c r="D60" s="1">
-        <v>34</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
       <c r="E60" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
@@ -2340,40 +2395,40 @@
       <c r="J60" s="1"/>
     </row>
     <row r="61" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="1"/>
+      <c r="A61" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="B61" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
+        <v>73</v>
+      </c>
+      <c r="C61" s="1">
+        <v>16</v>
+      </c>
+      <c r="D61" s="1">
+        <v>4</v>
+      </c>
       <c r="E61" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F61" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
     </row>
     <row r="62" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>137</v>
-      </c>
+      <c r="A62" s="1"/>
       <c r="B62" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C62" s="1">
-        <v>16</v>
-      </c>
-      <c r="D62" s="1">
-        <v>4</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
       <c r="E62" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
@@ -2382,7 +2437,7 @@
     <row r="63" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -2396,16 +2451,24 @@
       <c r="J63" s="1"/>
     </row>
     <row r="64" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="1"/>
+      <c r="A64" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="B64" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
+        <v>76</v>
+      </c>
+      <c r="C64" s="1">
+        <v>34</v>
+      </c>
+      <c r="D64" s="1">
+        <v>8</v>
+      </c>
       <c r="E64" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F64" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
@@ -2413,17 +2476,15 @@
     </row>
     <row r="65" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C65" s="1">
-        <v>34</v>
-      </c>
-      <c r="D65" s="1">
-        <v>8</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D65" s="1"/>
       <c r="E65" s="1" t="b">
         <v>1</v>
       </c>
@@ -2437,21 +2498,19 @@
     </row>
     <row r="66" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>139</v>
+        <v>90</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C66" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F66" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="F66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
@@ -2459,10 +2518,10 @@
     </row>
     <row r="67" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C67" s="1">
         <v>16</v>
@@ -2471,133 +2530,132 @@
       <c r="E67" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F67" s="1"/>
+      <c r="F67" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
     </row>
     <row r="68" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>140</v>
-      </c>
+      <c r="A68" s="1"/>
       <c r="B68" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C68" s="1">
-        <v>16</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F68" s="1"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
     </row>
     <row r="69" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="1"/>
+      <c r="A69" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="B69" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C69" s="1"/>
+        <v>81</v>
+      </c>
+      <c r="C69" s="1">
+        <v>128</v>
+      </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
+      <c r="G69" s="1" t="s">
+        <v>145</v>
+      </c>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
     </row>
     <row r="70" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>92</v>
+        <v>141</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C70" s="1">
-        <v>128</v>
-      </c>
-      <c r="D70" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="D70" s="1">
+        <v>34</v>
+      </c>
       <c r="E70" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1" t="s">
-        <v>146</v>
-      </c>
+      <c r="F70" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
     </row>
     <row r="71" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>141</v>
+        <v>93</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C71" s="1">
+        <v>83</v>
+      </c>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F71" s="1"/>
+    </row>
+    <row r="72" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C72" s="1">
         <v>16</v>
       </c>
-      <c r="D71" s="1">
+      <c r="D72" s="1">
         <v>34</v>
       </c>
-      <c r="E71" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
-      <c r="J71" s="1"/>
-    </row>
-    <row r="72" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
       <c r="E72" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F72" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="73" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>142</v>
+      </c>
       <c r="B73" s="1" t="s">
-        <v>84</v>
+        <v>144</v>
       </c>
       <c r="C73" s="1">
-        <v>16</v>
-      </c>
-      <c r="D73" s="1">
-        <v>34</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="D73" s="1"/>
       <c r="E73" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F73" s="1" t="s">
-        <v>15</v>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>145</v>
+        <v>19</v>
       </c>
       <c r="C74" s="1">
         <v>128</v>
@@ -2608,94 +2666,116 @@
       </c>
       <c r="F74" s="1"/>
       <c r="G74" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>19</v>
+        <v>152</v>
       </c>
       <c r="C75" s="1">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1" t="b">
         <v>1</v>
       </c>
       <c r="F75" s="1"/>
-      <c r="G75" s="1" t="s">
-        <v>149</v>
-      </c>
     </row>
     <row r="76" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
+        <v>153</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C76" s="1">
+        <v>129</v>
+      </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
+      <c r="F76" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="77" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>152</v>
-      </c>
+      <c r="A77" s="1"/>
       <c r="B77" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C77" s="1">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1" t="b">
         <v>1</v>
       </c>
       <c r="F77" s="1"/>
+      <c r="H77" s="3" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="78" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B78" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C78" s="1">
-        <v>129</v>
-      </c>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1" t="s">
-        <v>15</v>
+      <c r="H78" s="3" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
-    </row>
-    <row r="80" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="A79" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G80" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" spans="2:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" spans="2:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" spans="2:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" spans="2:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" spans="2:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" spans="2:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" spans="2:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" spans="2:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" spans="2:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" spans="2:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" spans="2:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" spans="2:2" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="97" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="98" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="99" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2779,11 +2859,16 @@
     <row r="177" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="178" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="179" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="H78" r:id="rId1" xr:uid="{517496FA-D620-4470-9A72-05AE6885F093}"/>
+    <hyperlink ref="H77" r:id="rId2" display="酷安@夜夜夜猫" xr:uid="{BF11FD84-8419-4B39-8314-D984FDEB0DE2}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>